--- a/Switches/KMX Switch/Electrical/PickAndPlace_V2.0.1 PCB_2024-05-28.xlsx
+++ b/Switches/KMX Switch/Electrical/PickAndPlace_V2.0.1 PCB_2024-05-28.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="121">
   <si>
     <t>Designator</t>
   </si>
@@ -67,310 +67,313 @@
     <t>74.676mm</t>
   </si>
   <si>
-    <t>-64.008mm</t>
+    <t>-59.944mm</t>
   </si>
   <si>
     <t>72.136mm</t>
   </si>
   <si>
+    <t>-54.864mm</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>保险丝透明座</t>
+  </si>
+  <si>
+    <t>FUSE-TH_L24.5-W9.8-P22.5</t>
+  </si>
+  <si>
+    <t>91.44mm</t>
+  </si>
+  <si>
+    <t>-62.484mm</t>
+  </si>
+  <si>
+    <t>102.69mm</t>
+  </si>
+  <si>
+    <t>Fuse Holder</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>D-SUB-DR-9PCM-CB</t>
+  </si>
+  <si>
+    <t>DB9-TH_ID09S33E4GV00LF</t>
+  </si>
+  <si>
+    <t>89.408mm</t>
+  </si>
+  <si>
+    <t>-41.148mm</t>
+  </si>
+  <si>
+    <t>83.868mm</t>
+  </si>
+  <si>
+    <t>-42.568mm</t>
+  </si>
+  <si>
+    <t>DS2</t>
+  </si>
+  <si>
+    <t>MHK1560UGBTD</t>
+  </si>
+  <si>
+    <t>LED-TH_MHK1560UGBTD</t>
+  </si>
+  <si>
+    <t>70.104mm</t>
+  </si>
+  <si>
+    <t>-37.084mm</t>
+  </si>
+  <si>
+    <t>68.834mm</t>
+  </si>
+  <si>
+    <t>DS1</t>
+  </si>
+  <si>
+    <t>MHK1560CGBTD</t>
+  </si>
+  <si>
+    <t>108.712mm</t>
+  </si>
+  <si>
+    <t>107.442mm</t>
+  </si>
+  <si>
+    <t>MHK1560CRBTD</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>90.424mm</t>
+  </si>
+  <si>
+    <t>-72.136mm</t>
+  </si>
+  <si>
+    <t>95.964mm</t>
+  </si>
+  <si>
+    <t>-70.716mm</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>-50.8mm</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>U-USBBR04P-F001</t>
+  </si>
+  <si>
+    <t>USB-B-TH_U241-041N-1BR85-1</t>
+  </si>
+  <si>
+    <t>108.204mm</t>
+  </si>
+  <si>
+    <t>-56.896mm</t>
+  </si>
+  <si>
+    <t>105.849mm</t>
+  </si>
+  <si>
+    <t>-55.626mm</t>
+  </si>
+  <si>
+    <t>MP1</t>
+  </si>
+  <si>
+    <t>SMTSOM360BTR</t>
+  </si>
+  <si>
+    <t>SMD_BD5.6-D4.1</t>
+  </si>
+  <si>
+    <t>75.184mm</t>
+  </si>
+  <si>
+    <t>-48.768mm</t>
+  </si>
+  <si>
+    <t>73.082mm</t>
+  </si>
+  <si>
+    <t>-47.118mm</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>MP2</t>
+  </si>
+  <si>
+    <t>111.76mm</t>
+  </si>
+  <si>
+    <t>-69.088mm</t>
+  </si>
+  <si>
+    <t>109.658mm</t>
+  </si>
+  <si>
+    <t>-67.438mm</t>
+  </si>
+  <si>
+    <t>MP3</t>
+  </si>
+  <si>
+    <t>109.22mm</t>
+  </si>
+  <si>
+    <t>-45.212mm</t>
+  </si>
+  <si>
+    <t>107.118mm</t>
+  </si>
+  <si>
+    <t>-43.562mm</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SS14_C2480</t>
+  </si>
+  <si>
+    <t>SMA_L4.2-W2.6-LS5.3-RD</t>
+  </si>
+  <si>
+    <t>115.316mm</t>
+  </si>
+  <si>
+    <t>-46.228mm</t>
+  </si>
+  <si>
+    <t>-43.663mm</t>
+  </si>
+  <si>
+    <t>SS14</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>69.088mm</t>
+  </si>
+  <si>
     <t>-58.928mm</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>-56.363mm</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>0805W8F1001T5E</t>
+  </si>
+  <si>
+    <t>R0805</t>
+  </si>
+  <si>
+    <t>68.072mm</t>
+  </si>
+  <si>
+    <t>-44.212mm</t>
+  </si>
+  <si>
+    <t>1kΩ</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>113.284mm</t>
+  </si>
+  <si>
+    <t>-39.116mm</t>
+  </si>
+  <si>
+    <t>-38.116mm</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>0805W8F1002T5E</t>
+  </si>
+  <si>
+    <t>-51.308mm</t>
+  </si>
+  <si>
+    <t>68.088mm</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>R4</t>
   </si>
   <si>
     <t>Q1</t>
   </si>
   <si>
-    <t>2SC1815L-GR-T92-B</t>
-  </si>
-  <si>
-    <t>TO-92-3_L4.9-W3.7-P2.54-L</t>
-  </si>
-  <si>
-    <t>68.58mm</t>
-  </si>
-  <si>
-    <t>-61.976mm</t>
-  </si>
-  <si>
-    <t>-64.516mm</t>
-  </si>
-  <si>
-    <t>U15</t>
-  </si>
-  <si>
-    <t>DS18B20+T&amp;R</t>
-  </si>
-  <si>
-    <t>-54.356mm</t>
-  </si>
-  <si>
-    <t>77.216mm</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>保险丝透明座</t>
-  </si>
-  <si>
-    <t>FUSE-TH_L24.5-W9.8-P22.5</t>
-  </si>
-  <si>
-    <t>91.44mm</t>
-  </si>
-  <si>
-    <t>-62.484mm</t>
-  </si>
-  <si>
-    <t>102.69mm</t>
-  </si>
-  <si>
-    <t>Fuse Holder</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>D-SUB-DR-9PCM-CB</t>
-  </si>
-  <si>
-    <t>DB9-TH_ID09S33E4GV00LF</t>
-  </si>
-  <si>
-    <t>89.408mm</t>
-  </si>
-  <si>
-    <t>-41.148mm</t>
-  </si>
-  <si>
-    <t>83.868mm</t>
-  </si>
-  <si>
-    <t>-42.568mm</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>CR1/4W-10K±5%-ST26</t>
-  </si>
-  <si>
-    <t>RES-TH_BD2.7-L6.2-P10.20-D0.4</t>
-  </si>
-  <si>
-    <t>88.9mm</t>
-  </si>
-  <si>
-    <t>-70.612mm</t>
-  </si>
-  <si>
-    <t>94mm</t>
-  </si>
-  <si>
-    <t>10kΩ</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>MF1/4W-1KΩ±1%T52</t>
-  </si>
-  <si>
-    <t>RES-TH_BD2.3-L6.5-P10.50-D0.5</t>
-  </si>
-  <si>
-    <t>114.808mm</t>
-  </si>
-  <si>
-    <t>-43.688mm</t>
-  </si>
-  <si>
-    <t>-38.438mm</t>
-  </si>
-  <si>
-    <t>1kΩ</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>65.024mm</t>
-  </si>
-  <si>
-    <t>-43.18mm</t>
-  </si>
-  <si>
-    <t>-37.93mm</t>
-  </si>
-  <si>
-    <t>DS3</t>
-  </si>
-  <si>
-    <t>MHK1560UGBTD</t>
-  </si>
-  <si>
-    <t>LED-TH_MHK1560UGBTD</t>
-  </si>
-  <si>
-    <t>70.104mm</t>
-  </si>
-  <si>
-    <t>-37.084mm</t>
-  </si>
-  <si>
-    <t>68.834mm</t>
-  </si>
-  <si>
-    <t>DS2</t>
-  </si>
-  <si>
-    <t>MHK1560CGBTD</t>
-  </si>
-  <si>
-    <t>108.712mm</t>
-  </si>
-  <si>
-    <t>107.442mm</t>
-  </si>
-  <si>
-    <t>MHK1560CRBTD</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>68.072mm</t>
-  </si>
-  <si>
-    <t>-51.308mm</t>
-  </si>
-  <si>
-    <t>-46.058mm</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>90.424mm</t>
-  </si>
-  <si>
-    <t>-76.2mm</t>
-  </si>
-  <si>
-    <t>95.964mm</t>
-  </si>
-  <si>
-    <t>-74.78mm</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>-50.8mm</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>U-USBBR04P-F001</t>
-  </si>
-  <si>
-    <t>USB-B-TH_U241-041N-1BR85-1</t>
-  </si>
-  <si>
-    <t>108.204mm</t>
-  </si>
-  <si>
-    <t>-56.896mm</t>
-  </si>
-  <si>
-    <t>105.849mm</t>
-  </si>
-  <si>
-    <t>-55.626mm</t>
-  </si>
-  <si>
-    <t>MP1</t>
-  </si>
-  <si>
-    <t>SMTSOM360BTR</t>
-  </si>
-  <si>
-    <t>SMD_BD5.6-D4.1</t>
-  </si>
-  <si>
-    <t>75.184mm</t>
-  </si>
-  <si>
-    <t>-48.768mm</t>
-  </si>
-  <si>
-    <t>73.082mm</t>
-  </si>
-  <si>
-    <t>-47.118mm</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>MP2</t>
-  </si>
-  <si>
-    <t>109.22mm</t>
-  </si>
-  <si>
-    <t>-69.088mm</t>
-  </si>
-  <si>
-    <t>107.118mm</t>
-  </si>
-  <si>
-    <t>-67.438mm</t>
-  </si>
-  <si>
-    <t>MP3</t>
-  </si>
-  <si>
-    <t>-45.212mm</t>
-  </si>
-  <si>
-    <t>-43.562mm</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>1N5817_C698892</t>
-  </si>
-  <si>
-    <t>DO-41_BD2.4-L4.7-P8.70-D0.9-RD</t>
-  </si>
-  <si>
-    <t>111.76mm</t>
-  </si>
-  <si>
-    <t>-78.232mm</t>
-  </si>
-  <si>
-    <t>116.11mm</t>
-  </si>
-  <si>
-    <t>1N5817</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>-71.628mm</t>
-  </si>
-  <si>
-    <t>-75.978mm</t>
+    <t>D882 Y档160~320</t>
+  </si>
+  <si>
+    <t>SOT-89-3_L4.5-W2.5-P1.50-LS4.2-BR</t>
+  </si>
+  <si>
+    <t>67.056mm</t>
+  </si>
+  <si>
+    <t>-65.532mm</t>
+  </si>
+  <si>
+    <t>65.7mm</t>
+  </si>
+  <si>
+    <t>-64.032mm</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>DS18B20Z+T&amp;R</t>
+  </si>
+  <si>
+    <t>SOIC-8_L4.9-W3.9-P1.27-LS6.0-BL</t>
+  </si>
+  <si>
+    <t>70.612mm</t>
+  </si>
+  <si>
+    <t>-72.644mm</t>
+  </si>
+  <si>
+    <t>73.384mm</t>
+  </si>
+  <si>
+    <t>-74.549mm</t>
   </si>
 </sst>
 </file>
@@ -867,57 +870,57 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -929,36 +932,36 @@
         <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -973,39 +976,39 @@
         <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -1017,80 +1020,80 @@
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>52</v>
       </c>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
       <c r="J7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
       </c>
       <c r="L7">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -1099,189 +1102,189 @@
         <v>21</v>
       </c>
       <c r="L8">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
         <v>61</v>
       </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" t="s">
-        <v>64</v>
-      </c>
       <c r="J9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
       </c>
       <c r="L9">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
         <v>65</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
         <v>67</v>
       </c>
-      <c r="D10" t="s">
+      <c r="I10" t="s">
         <v>68</v>
       </c>
-      <c r="E10" t="s">
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
         <v>69</v>
       </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10">
-        <v>180</v>
-      </c>
-      <c r="M10" t="s">
-        <v>22</v>
-      </c>
       <c r="N10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
         <v>71</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>72</v>
       </c>
-      <c r="C11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
         <v>73</v>
       </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
         <v>69</v>
       </c>
-      <c r="F11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11">
-        <v>180</v>
-      </c>
-      <c r="M11" t="s">
-        <v>22</v>
-      </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
         <v>76</v>
       </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>77</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
         <v>78</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" t="s">
-        <v>77</v>
       </c>
       <c r="I12" t="s">
         <v>79</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
       </c>
       <c r="L12">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1289,72 +1292,72 @@
         <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="N13" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1363,133 +1366,133 @@
         <v>21</v>
       </c>
       <c r="L14">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="N14" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
       </c>
       <c r="L15">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="N15" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" t="s">
         <v>98</v>
       </c>
-      <c r="F16" t="s">
-        <v>97</v>
-      </c>
       <c r="G16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" t="s">
         <v>98</v>
-      </c>
-      <c r="H16" t="s">
-        <v>99</v>
       </c>
       <c r="I16" t="s">
         <v>100</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K16" t="s">
         <v>21</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M16" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="N16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
         <v>102</v>
       </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
         <v>103</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" t="s">
         <v>104</v>
       </c>
-      <c r="F17" t="s">
+      <c r="I17" t="s">
         <v>103</v>
       </c>
-      <c r="G17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" t="s">
-        <v>106</v>
-      </c>
       <c r="J17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K17" t="s">
         <v>21</v>
@@ -1498,86 +1501,86 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="N17" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
         <v>95</v>
       </c>
-      <c r="C18" t="s">
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18">
+        <v>270</v>
+      </c>
+      <c r="M18" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" t="s">
         <v>96</v>
-      </c>
-      <c r="D18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>101</v>
-      </c>
-      <c r="N18" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" t="s">
         <v>110</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19" t="s">
         <v>111</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" t="s">
         <v>112</v>
       </c>
-      <c r="D19" t="s">
+      <c r="I19" t="s">
         <v>113</v>
       </c>
-      <c r="E19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19" t="s">
-        <v>114</v>
-      </c>
       <c r="J19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" t="s">
         <v>21</v>
@@ -1586,42 +1589,42 @@
         <v>180</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="N19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
         <v>117</v>
-      </c>
-      <c r="B20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
       </c>
       <c r="E20" t="s">
         <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
         <v>118</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="I20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K20" t="s">
         <v>21</v>
@@ -1630,10 +1633,10 @@
         <v>90</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="N20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
